--- a/2_Formulas_Functions/8_Date_and_Time_Functions.xlsx
+++ b/2_Formulas_Functions/8_Date_and_Time_Functions.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E874EC1-E8D3-4F0D-ACCB-F04E1899F486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1160309E-60C9-4350-9134-9C16B24C273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="8" r:id="rId1"/>
-    <sheet name="Draft" sheetId="13" r:id="rId2"/>
+    <sheet name="Draft" sheetId="14" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="90">
   <si>
     <t>Email</t>
   </si>
@@ -289,12 +289,33 @@
   </si>
   <si>
     <t>AID0123567</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Application Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Days Since Applied</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -475,9 +496,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,7 +784,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:H21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +792,7 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
@@ -786,8 +809,8 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>22</v>
+      <c r="D1" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -812,8 +835,8 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
-        <v>45505</v>
+      <c r="D2" s="12">
+        <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>44</v>
@@ -838,8 +861,8 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
-        <v>45506</v>
+      <c r="D3" s="12">
+        <v>45055.406597222223</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>40</v>
@@ -864,8 +887,8 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10">
-        <v>45508</v>
+      <c r="D4" s="12">
+        <v>45128.770833333336</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>60</v>
@@ -890,8 +913,8 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10">
-        <v>45509</v>
+      <c r="D5" s="12">
+        <v>45173.302604166667</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>44</v>
@@ -916,8 +939,8 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10">
-        <v>45511</v>
+      <c r="D6" s="12">
+        <v>45248.833333333336</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>42</v>
@@ -942,8 +965,8 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
-        <v>45512</v>
+      <c r="D7" s="12">
+        <v>45302.531423611108</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -968,8 +991,8 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10">
-        <v>45514</v>
+      <c r="D8" s="12">
+        <v>45354.687847222223</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>60</v>
@@ -994,8 +1017,8 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
-        <v>45516</v>
+      <c r="D9" s="12">
+        <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -1020,8 +1043,8 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10">
-        <v>45517</v>
+      <c r="D10" s="12">
+        <v>45458.806076388886</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>52</v>
@@ -1046,8 +1069,8 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10">
-        <v>45519</v>
+      <c r="D11" s="12">
+        <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>56</v>
@@ -1072,8 +1095,8 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10">
-        <v>45520</v>
+      <c r="D12" s="12">
+        <v>45455.285069444442</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>46</v>
@@ -1098,8 +1121,8 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10">
-        <v>45522</v>
+      <c r="D13" s="12">
+        <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>58</v>
@@ -1124,8 +1147,8 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10">
-        <v>45523</v>
+      <c r="D14" s="12">
+        <v>45002.490104166667</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>48</v>
@@ -1150,8 +1173,8 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10">
-        <v>45525</v>
+      <c r="D15" s="12">
+        <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>54</v>
@@ -1176,8 +1199,8 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10">
-        <v>45527</v>
+      <c r="D16" s="12">
+        <v>45168.937673611108</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>62</v>
@@ -1202,8 +1225,8 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10">
-        <v>45528</v>
+      <c r="D17" s="12">
+        <v>45218.236458333333</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>40</v>
@@ -1228,8 +1251,8 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10">
-        <v>45530</v>
+      <c r="D18" s="12">
+        <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>42</v>
@@ -1254,8 +1277,8 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="10">
-        <v>45531</v>
+      <c r="D19" s="12">
+        <v>45418.892881944441</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
@@ -1280,8 +1303,8 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="10">
-        <v>45533</v>
+      <c r="D20" s="12">
+        <v>45496.083333333336</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>42</v>
@@ -1306,8 +1329,8 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="12">
-        <v>45535</v>
+      <c r="D21" s="13">
+        <v>45422.989930555559</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>42</v>
@@ -1332,11 +1355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA698531-D50A-4519-A406-995A8BCD57D1}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3969B28-4CA1-4CA9-A455-FC26EC1A58EA}">
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,14 +1367,17 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -1361,8 +1387,8 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>22</v>
+      <c r="D1" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -1376,8 +1402,26 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -1387,8 +1431,8 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
-        <v>45505</v>
+      <c r="D2" s="12">
+        <v>44971.640277777777</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>44</v>
@@ -1402,8 +1446,32 @@
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>MONTH(D2)</f>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f>DAY(D2)</f>
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <f>YEAR(D2)</f>
+        <v>2023</v>
+      </c>
+      <c r="N2" s="9">
+        <f>DATE(L2,J2,K2)</f>
+        <v>44971</v>
+      </c>
+      <c r="P2" s="9">
+        <f ca="1">TODAY()</f>
+        <v>45496</v>
+      </c>
+      <c r="R2">
+        <f ca="1">DATEDIF(N2,$P$2,"D")</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -1413,8 +1481,8 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
-        <v>45506</v>
+      <c r="D3" s="12">
+        <v>45055.406597222223</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>40</v>
@@ -1428,8 +1496,28 @@
       <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f t="shared" ref="J3:J21" si="0">MONTH(D3)</f>
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K21" si="1">DAY(D3)</f>
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L21" si="2">YEAR(D3)</f>
+        <v>2023</v>
+      </c>
+      <c r="N3" s="9">
+        <f t="shared" ref="N3:N21" si="3">DATE(L3,J3,K3)</f>
+        <v>45055</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R21" ca="1" si="4">DATEDIF(N3,$P$2,"D")</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -1439,8 +1527,8 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10">
-        <v>45508</v>
+      <c r="D4" s="12">
+        <v>45128.770833333336</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>60</v>
@@ -1454,8 +1542,28 @@
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="N4" s="9">
+        <f t="shared" si="3"/>
+        <v>45128</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ca="1" si="4"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -1465,8 +1573,8 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10">
-        <v>45509</v>
+      <c r="D5" s="12">
+        <v>45173.302604166667</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>44</v>
@@ -1480,8 +1588,28 @@
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="N5" s="9">
+        <f t="shared" si="3"/>
+        <v>45173</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ca="1" si="4"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -1491,8 +1619,8 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10">
-        <v>45511</v>
+      <c r="D6" s="12">
+        <v>45248.833333333336</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>42</v>
@@ -1506,8 +1634,28 @@
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" si="3"/>
+        <v>45248</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ca="1" si="4"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -1517,8 +1665,8 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
-        <v>45512</v>
+      <c r="D7" s="12">
+        <v>45302.531423611108</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -1532,8 +1680,28 @@
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="3"/>
+        <v>45302</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="4"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -1543,8 +1711,8 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10">
-        <v>45514</v>
+      <c r="D8" s="12">
+        <v>45354.687847222223</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>60</v>
@@ -1558,8 +1726,29 @@
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="3"/>
+        <v>45354</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="R8">
+        <f t="shared" ca="1" si="4"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -1569,8 +1758,8 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
-        <v>45516</v>
+      <c r="D9" s="12">
+        <v>45408.340277777781</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -1584,8 +1773,28 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="3"/>
+        <v>45408</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -1595,8 +1804,8 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10">
-        <v>45517</v>
+      <c r="D10" s="12">
+        <v>45458.806076388886</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>52</v>
@@ -1610,8 +1819,28 @@
       <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="3"/>
+        <v>45458</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -1621,8 +1850,8 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10">
-        <v>45519</v>
+      <c r="D11" s="12">
+        <v>45480.607638888891</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>56</v>
@@ -1636,8 +1865,28 @@
       <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="N11" s="9">
+        <f>DATE(L11,J11,K11)</f>
+        <v>45480</v>
+      </c>
+      <c r="R11">
+        <f ca="1">DATEDIF(N11,$P$2,"D")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -1647,8 +1896,8 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10">
-        <v>45520</v>
+      <c r="D12" s="12">
+        <v>45455.285069444442</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>46</v>
@@ -1662,8 +1911,28 @@
       <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="3"/>
+        <v>45455</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -1673,8 +1942,8 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10">
-        <v>45522</v>
+      <c r="D13" s="12">
+        <v>44951.552083333336</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>58</v>
@@ -1688,8 +1957,28 @@
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="3"/>
+        <v>44951</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ca="1" si="4"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -1699,8 +1988,8 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10">
-        <v>45523</v>
+      <c r="D14" s="12">
+        <v>45002.490104166667</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>48</v>
@@ -1714,8 +2003,28 @@
       <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="3"/>
+        <v>45002</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ca="1" si="4"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1725,8 +2034,8 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10">
-        <v>45525</v>
+      <c r="D15" s="12">
+        <v>45078.416666666664</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>54</v>
@@ -1740,8 +2049,28 @@
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="3"/>
+        <v>45078</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ca="1" si="4"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -1751,8 +2080,8 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10">
-        <v>45527</v>
+      <c r="D16" s="12">
+        <v>45168.937673611108</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>62</v>
@@ -1766,8 +2095,28 @@
       <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="3"/>
+        <v>45168</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ca="1" si="4"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -1777,8 +2126,8 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10">
-        <v>45528</v>
+      <c r="D17" s="12">
+        <v>45218.236458333333</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>40</v>
@@ -1792,8 +2141,28 @@
       <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="3"/>
+        <v>45218</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ca="1" si="4"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -1803,8 +2172,8 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10">
-        <v>45530</v>
+      <c r="D18" s="12">
+        <v>45350.71875</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>42</v>
@@ -1818,8 +2187,28 @@
       <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="3"/>
+        <v>45350</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ca="1" si="4"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -1829,8 +2218,8 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="10">
-        <v>45531</v>
+      <c r="D19" s="12">
+        <v>45418.892881944441</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
@@ -1844,8 +2233,28 @@
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="3"/>
+        <v>45418</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -1855,8 +2264,8 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="10">
-        <v>45533</v>
+      <c r="D20" s="12">
+        <v>45496.083333333336</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>42</v>
@@ -1870,8 +2279,28 @@
       <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="3"/>
+        <v>45496</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -1881,8 +2310,8 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="12">
-        <v>45535</v>
+      <c r="D21" s="13">
+        <v>45422.989930555559</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>42</v>
@@ -1895,6 +2324,26 @@
       </c>
       <c r="H21" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" si="3"/>
+        <v>45422</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/2_Formulas_Functions/8_Date_and_Time_Functions.xlsx
+++ b/2_Formulas_Functions/8_Date_and_Time_Functions.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1160309E-60C9-4350-9134-9C16B24C273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB41794D-3AC3-41AE-99A3-90AA9FFED7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6" yWindow="384" windowWidth="18132" windowHeight="11478" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="8" r:id="rId1"/>
-    <sheet name="Draft" sheetId="14" r:id="rId2"/>
+    <sheet name="Final" sheetId="14" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -314,7 +314,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -485,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -497,10 +497,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,19 +786,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -825,7 +824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -851,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -877,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -903,7 +902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -929,7 +928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -955,7 +954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -981,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -1033,7 +1032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -1163,7 +1162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -1359,25 +1358,25 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -1417,11 +1416,11 @@
       <c r="P1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -1464,14 +1463,14 @@
       </c>
       <c r="P2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="R2">
         <f ca="1">DATEDIF(N2,$P$2,"D")</f>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -1514,10 +1513,10 @@
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R21" ca="1" si="4">DATEDIF(N3,$P$2,"D")</f>
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -1560,10 +1559,10 @@
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="4"/>
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -1606,10 +1605,10 @@
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="4"/>
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -1652,10 +1651,10 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="4"/>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -1698,10 +1697,10 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="4"/>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -1745,10 +1744,10 @@
       <c r="P8" s="9"/>
       <c r="R8">
         <f t="shared" ca="1" si="4"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -1791,10 +1790,10 @@
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -1837,10 +1836,10 @@
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -1883,10 +1882,10 @@
       </c>
       <c r="R11">
         <f ca="1">DATEDIF(N11,$P$2,"D")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -1929,10 +1928,10 @@
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -1975,10 +1974,10 @@
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="4"/>
-        <v>545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -2021,10 +2020,10 @@
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="4"/>
-        <v>494</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -2067,10 +2066,10 @@
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="4"/>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -2113,10 +2112,10 @@
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="4"/>
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -2159,10 +2158,10 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="4"/>
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -2205,10 +2204,10 @@
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="4"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -2251,10 +2250,10 @@
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -2297,10 +2296,10 @@
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -2343,7 +2342,7 @@
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/2_Formulas_Functions/8_Date_and_Time_Functions.xlsx
+++ b/2_Formulas_Functions/8_Date_and_Time_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB41794D-3AC3-41AE-99A3-90AA9FFED7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0691AA28-5E8C-46A7-8DCF-FF1EFBEB8762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6" yWindow="384" windowWidth="18132" windowHeight="11478" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36720" yWindow="2685" windowWidth="18330" windowHeight="12855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="8" r:id="rId1"/>
@@ -786,19 +786,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -850,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -876,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -902,7 +902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -928,7 +928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -980,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -1357,26 +1357,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3969B28-4CA1-4CA9-A455-FC26EC1A58EA}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>

--- a/2_Formulas_Functions/8_Date_and_Time_Functions.xlsx
+++ b/2_Formulas_Functions/8_Date_and_Time_Functions.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0691AA28-5E8C-46A7-8DCF-FF1EFBEB8762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4120CA64-8CBA-431F-A4EA-8E1D421D3E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36720" yWindow="2685" windowWidth="18330" windowHeight="12855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="8" r:id="rId1"/>
-    <sheet name="Final" sheetId="14" r:id="rId2"/>
+    <sheet name="Date" sheetId="14" r:id="rId2"/>
+    <sheet name="Time" sheetId="15" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Time!$A$1:$H$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="96">
   <si>
     <t>Email</t>
   </si>
@@ -307,6 +311,24 @@
   </si>
   <si>
     <t>Days Since Applied</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Minute</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Hours in a Day</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Application Time</t>
   </si>
 </sst>
 </file>
@@ -485,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -497,9 +519,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,6 +541,1086 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Application</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Time!$Q$3:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Time!$R$3:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5F4-4F66-BDA8-B294F77B458F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="562951488"/>
+        <c:axId val="562952448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="562951488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562952448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562952448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562951488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCFF5F6-35D1-5C17-0282-044089ACD769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,8 +1940,8 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
-        <v>44971.640277777777</v>
+      <c r="D2" s="11">
+        <v>44971.640451388892</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>44</v>
@@ -860,8 +1966,8 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12">
-        <v>45055.406597222223</v>
+      <c r="D3" s="11">
+        <v>45055.40662037037</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>40</v>
@@ -886,8 +1992,8 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12">
-        <v>45128.770833333336</v>
+      <c r="D4" s="11">
+        <v>45128.729710648149</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>60</v>
@@ -912,8 +2018,8 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12">
-        <v>45173.302604166667</v>
+      <c r="D5" s="11">
+        <v>45173.302187499998</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>44</v>
@@ -938,8 +2044,8 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12">
-        <v>45248.833333333336</v>
+      <c r="D6" s="11">
+        <v>45248.70857638889</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>42</v>
@@ -964,8 +2070,8 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
-        <v>45302.531423611108</v>
+      <c r="D7" s="11">
+        <v>45302.531921296293</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -990,8 +2096,8 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12">
-        <v>45354.687847222223</v>
+      <c r="D8" s="11">
+        <v>45354.687881944446</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>60</v>
@@ -1016,8 +2122,8 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
-        <v>45408.340277777781</v>
+      <c r="D9" s="11">
+        <v>45408.340810185182</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -1042,8 +2148,8 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12">
-        <v>45458.806076388886</v>
+      <c r="D10" s="11">
+        <v>45458.743333333332</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>52</v>
@@ -1068,8 +2174,8 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
-        <v>45480.607638888891</v>
+      <c r="D11" s="11">
+        <v>45480.608055555553</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>56</v>
@@ -1094,8 +2200,8 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12">
-        <v>45455.285069444442</v>
+      <c r="D12" s="11">
+        <v>45455.284930555557</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>46</v>
@@ -1120,8 +2226,8 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="12">
-        <v>44951.552083333336</v>
+      <c r="D13" s="11">
+        <v>44951.552141203705</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>58</v>
@@ -1146,8 +2252,8 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="12">
-        <v>45002.490104166667</v>
+      <c r="D14" s="11">
+        <v>45002.490034722221</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>48</v>
@@ -1172,8 +2278,8 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="12">
-        <v>45078.416666666664</v>
+      <c r="D15" s="11">
+        <v>45078.417256944442</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>54</v>
@@ -1198,8 +2304,8 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="12">
-        <v>45168.937673611108</v>
+      <c r="D16" s="11">
+        <v>45168.729328703703</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>62</v>
@@ -1224,8 +2330,8 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="12">
-        <v>45218.236458333333</v>
+      <c r="D17" s="11">
+        <v>45218.319780092592</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>40</v>
@@ -1250,8 +2356,8 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12">
-        <v>45350.71875</v>
+      <c r="D18" s="11">
+        <v>45350.719236111108</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>42</v>
@@ -1276,8 +2382,8 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="12">
-        <v>45418.892881944441</v>
+      <c r="D19" s="11">
+        <v>45418.726354166669</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
@@ -1302,8 +2408,8 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="12">
-        <v>45496.083333333336</v>
+      <c r="D20" s="11">
+        <v>45496.291701388887</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>42</v>
@@ -1328,8 +2434,8 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="13">
-        <v>45422.989930555559</v>
+      <c r="D21" s="12">
+        <v>45422.739884259259</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>42</v>
@@ -1357,8 +2463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3969B28-4CA1-4CA9-A455-FC26EC1A58EA}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,22 +2507,25 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="M1" s="16"/>
+      <c r="N1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1430,8 +2539,8 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
-        <v>44971.640277777777</v>
+      <c r="D2" s="11">
+        <v>44971.640451388892</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>44</v>
@@ -1480,8 +2589,8 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12">
-        <v>45055.406597222223</v>
+      <c r="D3" s="11">
+        <v>45055.40662037037</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>40</v>
@@ -1526,8 +2635,8 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12">
-        <v>45128.770833333336</v>
+      <c r="D4" s="11">
+        <v>45128.729710648149</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>60</v>
@@ -1572,8 +2681,8 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12">
-        <v>45173.302604166667</v>
+      <c r="D5" s="11">
+        <v>45173.302187499998</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>44</v>
@@ -1618,8 +2727,8 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12">
-        <v>45248.833333333336</v>
+      <c r="D6" s="11">
+        <v>45248.70857638889</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>42</v>
@@ -1664,8 +2773,8 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
-        <v>45302.531423611108</v>
+      <c r="D7" s="11">
+        <v>45302.531921296293</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -1710,8 +2819,8 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12">
-        <v>45354.687847222223</v>
+      <c r="D8" s="11">
+        <v>45354.687881944446</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>60</v>
@@ -1757,8 +2866,8 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
-        <v>45408.340277777781</v>
+      <c r="D9" s="11">
+        <v>45408.340810185182</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -1803,8 +2912,8 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12">
-        <v>45458.806076388886</v>
+      <c r="D10" s="11">
+        <v>45458.743333333332</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>52</v>
@@ -1849,8 +2958,8 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
-        <v>45480.607638888891</v>
+      <c r="D11" s="11">
+        <v>45480.608055555553</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>56</v>
@@ -1895,8 +3004,8 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12">
-        <v>45455.285069444442</v>
+      <c r="D12" s="11">
+        <v>45455.284930555557</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>46</v>
@@ -1941,8 +3050,8 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="12">
-        <v>44951.552083333336</v>
+      <c r="D13" s="11">
+        <v>44951.552141203705</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>58</v>
@@ -1987,8 +3096,8 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="12">
-        <v>45002.490104166667</v>
+      <c r="D14" s="11">
+        <v>45002.490034722221</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>48</v>
@@ -2033,8 +3142,8 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="12">
-        <v>45078.416666666664</v>
+      <c r="D15" s="11">
+        <v>45078.417256944442</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>54</v>
@@ -2079,8 +3188,8 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="12">
-        <v>45168.937673611108</v>
+      <c r="D16" s="11">
+        <v>45168.729328703703</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>62</v>
@@ -2125,8 +3234,8 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="12">
-        <v>45218.236458333333</v>
+      <c r="D17" s="11">
+        <v>45218.319780092592</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>40</v>
@@ -2171,8 +3280,8 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12">
-        <v>45350.71875</v>
+      <c r="D18" s="11">
+        <v>45350.719236111108</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>42</v>
@@ -2217,8 +3326,8 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="12">
-        <v>45418.892881944441</v>
+      <c r="D19" s="11">
+        <v>45418.726354166669</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
@@ -2263,8 +3372,8 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="12">
-        <v>45496.083333333336</v>
+      <c r="D20" s="11">
+        <v>45496.291701388887</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>42</v>
@@ -2309,8 +3418,8 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="13">
-        <v>45422.989930555559</v>
+      <c r="D21" s="12">
+        <v>45422.739884259259</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>42</v>
@@ -2347,6 +3456,1101 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E2CB8-8C8C-43FB-95B8-5A63A3C08A07}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R4" sqref="R3:R26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>44971.640451388892</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <f>HOUR(D2)</f>
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <f>MINUTE(D2)</f>
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <f>SECOND(D2)</f>
+        <v>15</v>
+      </c>
+      <c r="N2" s="13">
+        <f>TIME(J2,K2,L2)</f>
+        <v>0.64045138888888886</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11">
+        <v>45055.40662037037</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J21" si="0">HOUR(D3)</f>
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K21" si="1">MINUTE(D3)</f>
+        <v>45</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L21" si="2">SECOND(D3)</f>
+        <v>32</v>
+      </c>
+      <c r="N3" s="13">
+        <f t="shared" ref="N3:N21" si="3">TIME(J3,K3,L3)</f>
+        <v>0.40662037037037035</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f>COUNTIF($J$2:$J$21,Q3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11">
+        <v>45128.729710648149</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N4" s="13">
+        <f t="shared" si="3"/>
+        <v>0.72971064814814812</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R26" si="4">COUNTIF($J$2:$J$21,Q4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>45173.302187499998</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" si="3"/>
+        <v>0.3021875</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11">
+        <v>45248.70857638889</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="3"/>
+        <v>0.70857638888888885</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11">
+        <v>45302.531921296293</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="3"/>
+        <v>0.53192129629629625</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11">
+        <v>45354.687881944446</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="3"/>
+        <v>0.68788194444444439</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>45408.340810185182</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="3"/>
+        <v>0.34081018518518519</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11">
+        <v>45458.743333333332</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="3"/>
+        <v>0.74333333333333329</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="11">
+        <v>45480.608055555553</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="3"/>
+        <v>0.60805555555555557</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11">
+        <v>45455.284930555557</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="3"/>
+        <v>0.28493055555555558</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11">
+        <v>44951.552141203705</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" si="3"/>
+        <v>0.55214120370370368</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11">
+        <v>45002.490034722221</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="3"/>
+        <v>0.49003472222222222</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="11">
+        <v>45078.417256944442</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="3"/>
+        <v>0.41725694444444444</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>13</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="11">
+        <v>45168.729328703703</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="3"/>
+        <v>0.72932870370370373</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11">
+        <v>45218.319780092592</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="3"/>
+        <v>0.3197800925925926</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>15</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="11">
+        <v>45350.719236111108</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="3"/>
+        <v>0.71923611111111108</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>16</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11">
+        <v>45418.726354166669</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="3"/>
+        <v>0.72635416666666663</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>17</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="11">
+        <v>45496.291701388887</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="3"/>
+        <v>0.29170138888888891</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>18</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="12">
+        <v>45422.739884259259</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="3"/>
+        <v>0.73988425925925927</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>19</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="14">
+        <v>20</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="14">
+        <v>21</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="14">
+        <v>22</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q25" s="14">
+        <v>23</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q26" s="14">
+        <v>24</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H21" xr:uid="{6C5E2CB8-8C8C-43FB-95B8-5A63A3C08A07}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
